--- a/biology/Botanique/Richard_Thomas_Lowe/Richard_Thomas_Lowe.xlsx
+++ b/biology/Botanique/Richard_Thomas_Lowe/Richard_Thomas_Lowe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Thomas Lowe est un naturaliste britannique, né en 1802 et mort en 1874.
 Il est diplômé au Christ's College de Cambridge en 1825 et entre alors dans les ordres. Il part à Madère en 1832 où il consacre son temps à l’étude de la flore et de la faune de l’archipel. En 1854, il devient recteur à Lea (Lincolnshire). Il meurt durant un naufrage près des Sorlingues. Il publie, de 1857 à 1872, une flore de Madère.
